--- a/data/Taiwan/Taiwan_1500_(CMM-June2011).xlsx
+++ b/data/Taiwan/Taiwan_1500_(CMM-June2011).xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rombert\Documents\GitHub\labrel\data\Taiwan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="375" windowWidth="13395" windowHeight="12285"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Labour relations used" sheetId="2" r:id="rId2"/>
     <sheet name="Sources" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -3061,7 +3066,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3096,7 +3101,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3309,7 +3314,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T12" sqref="T12"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3721,7 +3726,7 @@
         <v>145</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="L4" s="44">
         <v>100000</v>
@@ -3853,7 +3858,7 @@
         <v>145</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="L5" s="44">
         <v>101000</v>
@@ -3975,7 +3980,7 @@
         <v>145</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="L6" s="44">
         <v>50000</v>
@@ -4107,7 +4112,7 @@
         <v>145</v>
       </c>
       <c r="K7" s="26" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="L7" s="44">
         <v>50000</v>
@@ -4239,7 +4244,7 @@
         <v>145</v>
       </c>
       <c r="K8" s="26" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="L8" s="44">
         <v>41000</v>
@@ -4371,7 +4376,7 @@
         <v>145</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="L9" s="44">
         <v>39000</v>
@@ -4503,7 +4508,7 @@
         <v>145</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="L10" s="44">
         <v>1000</v>
@@ -4635,7 +4640,7 @@
         <v>145</v>
       </c>
       <c r="K11" s="26" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="L11" s="44">
         <v>70000</v>
@@ -4767,7 +4772,7 @@
         <v>145</v>
       </c>
       <c r="K12" s="26" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="L12" s="44">
         <v>60000</v>
@@ -4899,7 +4904,7 @@
         <v>145</v>
       </c>
       <c r="K13" s="26" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="L13" s="44">
         <v>15000</v>
@@ -5031,7 +5036,7 @@
         <v>145</v>
       </c>
       <c r="K14" s="26" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="L14" s="44">
         <v>46000</v>
@@ -5163,7 +5168,7 @@
         <v>145</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="L15" s="44">
         <v>19000</v>
@@ -5295,7 +5300,7 @@
         <v>145</v>
       </c>
       <c r="K16" s="26" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="L16" s="44">
         <v>1000</v>
@@ -5427,7 +5432,7 @@
         <v>145</v>
       </c>
       <c r="K17" s="26" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="L17" s="44">
         <v>9000</v>
@@ -5559,7 +5564,7 @@
         <v>145</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="L18" s="44">
         <v>11000</v>
